--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1706922.873415332</v>
+        <v>-1709510.384620908</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>113.3408864563007</v>
       </c>
       <c r="E2" t="n">
-        <v>159.2024557746219</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
         <v>48.08148421406815</v>
@@ -710,7 +710,7 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30.30985608570868</v>
       </c>
       <c r="C4" t="n">
-        <v>128.5000140584148</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.1014899708501</v>
@@ -874,10 +874,10 @@
         <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>31.86562382405576</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>101.6108189156333</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>33.51996911703309</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.785128219330392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>74.8187072122994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>184.4530101301301</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>53.1992054069342</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>248.6820345466072</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>38.61213096654805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>185.404873121236</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>116.2873251119332</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>177.6814669854337</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716393</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>10.74993283584325</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>161.9488727106808</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.06209150957563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>176.18113233758</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526174</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652659</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261738</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652648</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1098.004153147783</v>
+        <v>1304.727930205666</v>
       </c>
       <c r="C2" t="n">
-        <v>1098.004153147783</v>
+        <v>935.7654132652542</v>
       </c>
       <c r="D2" t="n">
-        <v>1098.004153147783</v>
+        <v>821.2796693700018</v>
       </c>
       <c r="E2" t="n">
-        <v>937.1935917592766</v>
+        <v>821.2796693700018</v>
       </c>
       <c r="F2" t="n">
-        <v>526.207686969669</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="G2" t="n">
-        <v>110.9648131842588</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842588</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247274</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.1001391730306</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315692</v>
+        <v>549.6723906315688</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529738</v>
+        <v>974.3476699529732</v>
       </c>
       <c r="M2" t="n">
         <v>1478.550181808269</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.525025811713</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.35445007607</v>
+        <v>2470.354450076069</v>
       </c>
       <c r="P2" t="n">
         <v>2841.109377259757</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.358140510236</v>
       </c>
       <c r="R2" t="n">
         <v>3119.882870623637</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3005.708673672839</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614957</v>
+        <v>3005.708673672839</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.44078599836</v>
+        <v>2752.164563056243</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.377898654789</v>
+        <v>2421.101675712672</v>
       </c>
       <c r="W2" t="n">
-        <v>1861.609243384675</v>
+        <v>2068.333020442557</v>
       </c>
       <c r="X2" t="n">
-        <v>1488.143485123595</v>
+        <v>1694.867262181478</v>
       </c>
       <c r="Y2" t="n">
-        <v>1098.004153147783</v>
+        <v>1304.727930205666</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>1319.99725399294</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331689</v>
+        <v>1171.062844331688</v>
       </c>
       <c r="E3" t="n">
         <v>1011.825389326233</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531183</v>
+        <v>865.2908313531178</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046184</v>
+        <v>728.8365465046179</v>
       </c>
       <c r="H3" t="n">
-        <v>637.454000090635</v>
+        <v>637.4540000906345</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414029</v>
+        <v>625.5352633414025</v>
       </c>
       <c r="J3" t="n">
-        <v>710.769017689183</v>
+        <v>710.7690176891825</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271161</v>
+        <v>1068.312822670917</v>
       </c>
       <c r="L3" t="n">
-        <v>1281.89538449531</v>
+        <v>1415.606302739111</v>
       </c>
       <c r="M3" t="n">
-        <v>1800.862095089972</v>
+        <v>1840.238281375766</v>
       </c>
       <c r="N3" t="n">
-        <v>2251.141463585</v>
+        <v>2290.517649870794</v>
       </c>
       <c r="O3" t="n">
-        <v>2640.839321344195</v>
+        <v>2680.21550762999</v>
       </c>
       <c r="P3" t="n">
-        <v>2934.273142322696</v>
+        <v>2973.64932860849</v>
       </c>
       <c r="Q3" t="n">
-        <v>3080.506684337842</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="R3" t="n">
         <v>3119.882870623637</v>
@@ -4437,13 +4437,13 @@
         <v>2988.75126865863</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.74073008233</v>
+        <v>2795.740730082329</v>
       </c>
       <c r="U3" t="n">
         <v>2567.666884224566</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992824</v>
+        <v>2332.514775992823</v>
       </c>
       <c r="W3" t="n">
         <v>2078.277419264622</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2322.396697196451</v>
+        <v>1747.679022705413</v>
       </c>
       <c r="C4" t="n">
-        <v>2192.598703198053</v>
+        <v>1747.679022705413</v>
       </c>
       <c r="D4" t="n">
-        <v>2042.482063785717</v>
+        <v>1747.679022705413</v>
       </c>
       <c r="E4" t="n">
-        <v>1894.568970203324</v>
+        <v>1747.679022705413</v>
       </c>
       <c r="F4" t="n">
-        <v>1747.679022705414</v>
+        <v>1747.679022705413</v>
       </c>
       <c r="G4" t="n">
         <v>1579.899739906575</v>
       </c>
       <c r="H4" t="n">
-        <v>1433.002877144986</v>
+        <v>1433.002877144985</v>
       </c>
       <c r="I4" t="n">
-        <v>1333.378255034895</v>
+        <v>1333.378255034894</v>
       </c>
       <c r="J4" t="n">
-        <v>1373.203697426283</v>
+        <v>1373.203697426282</v>
       </c>
       <c r="K4" t="n">
         <v>1568.485969881408</v>
@@ -4510,28 +4510,28 @@
         <v>3119.882870623637</v>
       </c>
       <c r="R4" t="n">
-        <v>3026.615115431937</v>
+        <v>3026.615115431936</v>
       </c>
       <c r="S4" t="n">
-        <v>2833.596982943222</v>
+        <v>2833.596982943221</v>
       </c>
       <c r="T4" t="n">
-        <v>2611.503733862094</v>
+        <v>2611.503733862093</v>
       </c>
       <c r="U4" t="n">
         <v>2322.396697196451</v>
       </c>
       <c r="V4" t="n">
-        <v>2322.396697196451</v>
+        <v>2067.712208990565</v>
       </c>
       <c r="W4" t="n">
-        <v>2322.396697196451</v>
+        <v>1778.295038953604</v>
       </c>
       <c r="X4" t="n">
-        <v>2322.396697196451</v>
+        <v>1778.295038953604</v>
       </c>
       <c r="Y4" t="n">
-        <v>2322.396697196451</v>
+        <v>1778.295038953604</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1675.730933054506</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="C5" t="n">
-        <v>1306.768416114094</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D5" t="n">
-        <v>948.5027175073435</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>562.7144649090992</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>151.7285601194916</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>140.6965140048922</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>2322.106850626881</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118627</v>
+        <v>1948.641092365801</v>
       </c>
       <c r="Y5" t="n">
-        <v>2062.330773118627</v>
+        <v>1558.501760389989</v>
       </c>
     </row>
     <row r="6">
@@ -4644,10 +4644,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>197.6963482775078</v>
       </c>
       <c r="H7" t="n">
         <v>163.837793613838</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.908724368016</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855438</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>942.9472709150266</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>942.9472709150266</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>557.1590183167823</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.7915515140957</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>363.7915515140957</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>363.7915515140957</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>363.7915515140957</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>363.7915515140957</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576258</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.7915515140957</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327651</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048582</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133955</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310024</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,7 +5200,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630048</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400714</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703112</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400711</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121644</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797744</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713841</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703108</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>945.4026036630042</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6318,10 +6318,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>874.8686257536382</v>
       </c>
       <c r="C28" t="n">
-        <v>580.899304487669</v>
+        <v>705.9324428257313</v>
       </c>
       <c r="D28" t="n">
-        <v>580.899304487669</v>
+        <v>555.8158034133955</v>
       </c>
       <c r="E28" t="n">
-        <v>432.9862109052759</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0962634073655</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319338</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656832</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6901,7 +6901,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7369,7 +7369,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7549,28 +7549,28 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,22 +7591,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7658,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795971</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>95.28760803839003</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>5.747744270113714</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>241.3421551643823</v>
       </c>
       <c r="E2" t="n">
-        <v>222.7279142976398</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>149.5221240962286</v>
       </c>
       <c r="C4" t="n">
-        <v>38.74680704021299</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0033420516643</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016451</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>101.118125215355</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>32.89260457060003</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>135.8503182118948</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.150513196503567</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.815700412496</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.9597225531939</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.297948387947002</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-6.892264536872972e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045142</v>
+        <v>99467.00901045141</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26332,10 +26332,10 @@
         <v>121071.9899535009</v>
       </c>
       <c r="I2" t="n">
+        <v>121071.9899535008</v>
+      </c>
+      <c r="J2" t="n">
         <v>121071.9899535009</v>
-      </c>
-      <c r="J2" t="n">
-        <v>121071.9899535008</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796425</v>
@@ -26366,13 +26366,13 @@
         <v>1271067.29747634</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023833</v>
+        <v>54832.77288023836</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594295</v>
+        <v>32664.34410594291</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363174</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12912.91945249303</v>
+        <v>12912.91945249302</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.0882867812</v>
       </c>
-      <c r="F4" t="n">
-        <v>10557.08828678117</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678122</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678121</v>
-      </c>
       <c r="J4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="K4" t="n">
         <v>18547.94754987468</v>
@@ -26448,16 +26448,16 @@
         <v>18547.94754987468</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="N4" t="n">
+        <v>18547.94754987466</v>
+      </c>
+      <c r="O4" t="n">
         <v>18547.94754987469</v>
       </c>
-      <c r="O4" t="n">
-        <v>18547.94754987467</v>
-      </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987466</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1288405.236530425</v>
+        <v>-1288800.057471578</v>
       </c>
       <c r="C6" t="n">
-        <v>-129354.5710201217</v>
+        <v>-129354.5710201216</v>
       </c>
       <c r="D6" t="n">
-        <v>-74521.79813988328</v>
+        <v>-74521.79813988329</v>
       </c>
       <c r="E6" t="n">
-        <v>-316020.0899645427</v>
+        <v>-316054.8278899782</v>
       </c>
       <c r="F6" t="n">
-        <v>9392.371842812601</v>
+        <v>9357.633917376894</v>
       </c>
       <c r="G6" t="n">
-        <v>9392.371842812528</v>
+        <v>9357.63391737685</v>
       </c>
       <c r="H6" t="n">
-        <v>9392.371842812514</v>
+        <v>9357.633917376908</v>
       </c>
       <c r="I6" t="n">
-        <v>9392.371842812558</v>
+        <v>9357.633917376836</v>
       </c>
       <c r="J6" t="n">
-        <v>-194682.2866075502</v>
+        <v>-194717.0245329859</v>
       </c>
       <c r="K6" t="n">
-        <v>-31220.14203009053</v>
+        <v>-31220.1420300905</v>
       </c>
       <c r="L6" t="n">
-        <v>1444.20207585243</v>
+        <v>1444.202075852387</v>
       </c>
       <c r="M6" t="n">
-        <v>-83610.8258596594</v>
+        <v>-83610.82585965944</v>
       </c>
       <c r="N6" t="n">
+        <v>1444.202075852401</v>
+      </c>
+      <c r="O6" t="n">
         <v>1444.20207585246</v>
       </c>
-      <c r="O6" t="n">
-        <v>1444.20207585243</v>
-      </c>
       <c r="P6" t="n">
-        <v>-17983.5159177794</v>
+        <v>-17983.51591777928</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>779.9707176559093</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.4307377463831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>262.7421405632647</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>247.6301498017797</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>111.2350457972877</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7995251327644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>332.057338529412</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>185.278090548339</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>112.826602852094</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>37.52980365900572</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.849246296846667e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>86.09470136139402</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>361.1553585674084</v>
       </c>
       <c r="L3" t="n">
         <v>350.8014950183777</v>
       </c>
       <c r="M3" t="n">
-        <v>524.2087985804664</v>
+        <v>428.9211905420763</v>
       </c>
       <c r="N3" t="n">
         <v>454.8276449444728</v>
@@ -34799,7 +34799,7 @@
         <v>147.710648500148</v>
       </c>
       <c r="R3" t="n">
-        <v>39.77392554120711</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
